--- a/medicine/Mort/Bateau-tombe/Bateau-tombe.xlsx
+++ b/medicine/Mort/Bateau-tombe/Bateau-tombe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bateau-tombe, navire-sépulture ou bateau-sépulture est un tombeau spécial utilisé dans une cérémonie funéraire dans laquelle un bateau est utilisé comme réceptacle pour le défunt et ses biens, ou comme bien en tant que tel. Cette technique d'inhumation était notamment utilisée par les Anglo-Saxons, les Mérovingiens, les Vikings et occasionnellement par les Égyptiens.
 </t>
@@ -513,22 +525,163 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Égypte
-Bateau de Khéops, Gizeh (IVe dynastie)
-Scandinavie
-Ladby, Danemark
+          <t>Égypte</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bateau de Khéops, Gizeh (IVe dynastie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bateau-tombe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bateau-tombe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples de bateaux-tombes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Scandinavie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ladby, Danemark
 Gokstad, Norvège
 Oseberg, Norvège
 Tune, Norvège
 Valsgärde, Suède
-Vendel, Suède
-Îles Britanniques
-Snape, Est de l'Angleterre
-Sutton Hoo, Est de l'Angleterre
-France
-Ile de Groix, en Bretagne : bateau brûlé au Xe siècle, dont subsistent les ferrures [1].
-Russie et Ukraine
-Rourikovo Gorodichtche près de Novgorod, en Russie
+Vendel, Suède</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bateau-tombe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bateau-tombe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples de bateaux-tombes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Îles Britanniques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Snape, Est de l'Angleterre
+Sutton Hoo, Est de l'Angleterre</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bateau-tombe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bateau-tombe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples de bateaux-tombes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ile de Groix, en Bretagne : bateau brûlé au Xe siècle, dont subsistent les ferrures .</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bateau-tombe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bateau-tombe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples de bateaux-tombes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Russie et Ukraine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rourikovo Gorodichtche près de Novgorod, en Russie
 Sarskoïe Gorodichtche près de Rostov Veliki, en Russie
 Timerevo (en) près de Iaroslavl, en Russie
 Tombe noire près de Tchernigov, en Ukraine
@@ -536,33 +689,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bateau-tombe</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bateau-tombe</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les cérémonies funéraires basées sur des bateaux-sépultures sont courantes dans la fiction, parfois dans la variante spectaculaire — peut-être celtique plutôt que germanique[1] — du navire incendié avant d'être confié aux flots.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les cérémonies funéraires basées sur des bateaux-sépultures sont courantes dans la fiction, parfois dans la variante spectaculaire — peut-être celtique plutôt que germanique — du navire incendié avant d'être confié aux flots.
 Le début de Beowulf est consacré au roi mythique Scyld, inhumé de cette façon.
 Dans le film Les Vikings, Einar (Kirk Douglas) fils de Ragnar est inhumé de cette façon.
 Dans le film Le 13e Guerrier  c'est ainsi que le chef viking est inhumé au début du film.
